--- a/SPMP/SPMP Documento/SPMP[Alimnova]PuntosFuncionalesvV1.0.0.xlsx
+++ b/SPMP/SPMP Documento/SPMP[Alimnova]PuntosFuncionalesvV1.0.0.xlsx
@@ -1047,9 +1047,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1084,15 +1081,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1121,15 +1109,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1157,31 +1139,26 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1196,14 +1173,37 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1571,10 +1571,10 @@
       <c r="B2" s="4">
         <v>3</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="13" t="s">
         <v>37</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -1603,10 +1603,10 @@
       <c r="B3" s="4">
         <v>18</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="15" t="s">
         <v>49</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -1639,10 +1639,10 @@
       <c r="B4" s="4">
         <v>6</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="17" t="s">
         <v>52</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -1669,10 +1669,10 @@
       <c r="B5" s="4">
         <v>5</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="13" t="s">
         <v>37</v>
       </c>
       <c r="E5" s="4" t="s">
@@ -1705,10 +1705,10 @@
       <c r="B6" s="4">
         <v>5</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="18" t="s">
         <v>37</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -1741,10 +1741,10 @@
       <c r="B7" s="4">
         <v>7</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="18" t="s">
         <v>37</v>
       </c>
       <c r="E7" s="4" t="s">
@@ -1781,10 +1781,10 @@
       <c r="B8" s="4">
         <v>7</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="18" t="s">
         <v>37</v>
       </c>
       <c r="E8" s="4" t="s">
@@ -1821,10 +1821,10 @@
       <c r="B9" s="4">
         <v>33</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="19" t="s">
         <v>52</v>
       </c>
       <c r="E9" s="4" t="s">
@@ -1859,10 +1859,10 @@
       <c r="B10" s="4">
         <v>33</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="19" t="s">
         <v>52</v>
       </c>
       <c r="E10" s="4" t="s">
@@ -1897,10 +1897,10 @@
       <c r="B11" s="4">
         <v>62</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="14" t="s">
         <v>52</v>
       </c>
       <c r="E11" s="4" t="s">
@@ -1939,10 +1939,10 @@
       <c r="B12" s="4">
         <v>7</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="17" t="s">
         <v>52</v>
       </c>
       <c r="E12" s="4" t="s">
@@ -1979,10 +1979,10 @@
       <c r="B13" s="4">
         <v>7</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="17" t="s">
         <v>52</v>
       </c>
       <c r="E13" s="4" t="s">
@@ -2013,28 +2013,28 @@
       <c r="B14" s="4">
         <v>5</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="7" t="s">
         <v>37</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H14" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="I14" s="8" t="s">
+      <c r="I14" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="J14" s="8" t="s">
+      <c r="J14" s="7" t="s">
         <v>91</v>
       </c>
       <c r="K14" s="4"/>
@@ -2049,10 +2049,10 @@
       <c r="B15" s="4">
         <v>8</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="18" t="s">
         <v>37</v>
       </c>
       <c r="E15" s="4" t="s">
@@ -2091,10 +2091,10 @@
       <c r="B16" s="4">
         <v>5</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="18" t="s">
         <v>37</v>
       </c>
       <c r="E16" s="4" t="s">
@@ -2109,10 +2109,10 @@
       <c r="H16" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="I16" s="8" t="s">
+      <c r="I16" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="J16" s="8" t="s">
+      <c r="J16" s="7" t="s">
         <v>62</v>
       </c>
       <c r="K16" s="4"/>
@@ -2124,31 +2124,31 @@
       <c r="A17" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="7">
         <v>5</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="H17" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="I17" s="8" t="s">
+      <c r="I17" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="J17" s="8" t="s">
+      <c r="J17" s="7" t="s">
         <v>62</v>
       </c>
       <c r="K17" s="4"/>
@@ -2163,10 +2163,10 @@
       <c r="B18" s="4">
         <v>4</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="16" t="s">
         <v>37</v>
       </c>
       <c r="E18" s="4" t="s">
@@ -2197,10 +2197,10 @@
       <c r="B19" s="4">
         <v>2</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="16" t="s">
         <v>37</v>
       </c>
       <c r="E19" s="4" t="s">
@@ -2227,10 +2227,10 @@
       <c r="B20" s="4">
         <v>4</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="16" t="s">
         <v>37</v>
       </c>
       <c r="E20" s="4" t="s">
@@ -2258,28 +2258,28 @@
       <c r="A21" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="7">
         <v>4</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="G21" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="H21" s="8" t="s">
+      <c r="H21" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="I21" s="8" t="s">
+      <c r="I21" s="7" t="s">
         <v>106</v>
       </c>
       <c r="J21" s="4"/>
@@ -2295,10 +2295,10 @@
       <c r="B22" s="4">
         <v>4</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="13" t="s">
         <v>37</v>
       </c>
       <c r="E22" s="4" t="s">
@@ -2329,10 +2329,10 @@
       <c r="B23" s="4">
         <v>34</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="D23" s="17" t="s">
         <v>52</v>
       </c>
       <c r="E23" s="4" t="s">
@@ -2426,205 +2426,205 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="7" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="7" t="s">
+      <c r="E1" s="46"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="H1" s="7"/>
+      <c r="H1" s="46"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="12" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="12" t="s">
+      <c r="F2" s="9"/>
+      <c r="G2" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="11" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="12">
         <v>3</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="12" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="10">
         <v>4</v>
       </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="12" t="s">
+      <c r="F3" s="9"/>
+      <c r="G3" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="10">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="10">
         <v>1</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="12" t="s">
+      <c r="C4" s="9"/>
+      <c r="D4" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="10">
         <v>4</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="12" t="s">
+      <c r="F4" s="9"/>
+      <c r="G4" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="10">
         <v>1</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="12" t="s">
+      <c r="C5" s="9"/>
+      <c r="D5" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="10">
         <v>0</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="12" t="s">
+      <c r="F5" s="9"/>
+      <c r="G5" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="7" t="s">
+      <c r="B7" s="46"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="12" t="s">
+      <c r="C8" s="9"/>
+      <c r="D8" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="10">
         <v>1</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="12" t="s">
+      <c r="C9" s="9"/>
+      <c r="D9" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <v>0</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="10">
         <v>0</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="12" t="s">
+      <c r="C10" s="9"/>
+      <c r="D10" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="10">
         <v>0</v>
       </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="10">
         <v>0</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="12" t="s">
+      <c r="C11" s="9"/>
+      <c r="D11" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="10">
         <v>0</v>
       </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="22">
+      <c r="B14" s="46"/>
+      <c r="C14" s="47">
         <f>SUM(B3+B4+E3+E4+H3+H4+B9+B5+E5+H5+B10+B11+E9+E10+E11)</f>
         <v>22</v>
       </c>
-      <c r="D14" s="21"/>
+      <c r="D14" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2655,141 +2655,141 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26" t="s">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="22" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="24">
+      <c r="B3" s="20">
         <f>eilow*3</f>
         <v>9</v>
       </c>
-      <c r="C3" s="24">
+      <c r="C3" s="20">
         <f>eiave*4</f>
         <v>4</v>
       </c>
-      <c r="D3" s="24">
+      <c r="D3" s="20">
         <f>eihi*3</f>
         <v>3</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="20">
         <f>SUM(B3:D3)</f>
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="24">
+      <c r="B4" s="20">
         <f>eolow*4</f>
         <v>16</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="20">
         <f>eoave*5</f>
         <v>20</v>
       </c>
-      <c r="D4" s="24">
+      <c r="D4" s="20">
         <f>eohi*7</f>
         <v>0</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="20">
         <f t="shared" ref="E4:E7" si="0">SUM(B4:D4)</f>
         <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="B5" s="24">
+      <c r="B5" s="20">
         <f>eqlow*7</f>
         <v>42</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="20">
         <f>eqave*4</f>
         <v>8</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="20">
         <f>eqhi*6</f>
         <v>0</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="20">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B6" s="20">
         <f>ilflow*7</f>
         <v>7</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="20">
         <f>ilfave*10</f>
         <v>0</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D6" s="20">
         <f>ilfhi*15</f>
         <v>0</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="20">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="B7" s="24">
+      <c r="B7" s="20">
         <v>0</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="20">
         <v>0</v>
       </c>
-      <c r="D7" s="24">
+      <c r="D7" s="20">
         <v>0</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="24">
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="20">
         <f>SUM(E3:E7)</f>
         <v>109</v>
       </c>
@@ -2818,214 +2818,214 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="28" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="29.25" customHeight="1">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="C2" s="28">
+      <c r="C2" s="24">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="C3" s="28">
+      <c r="C3" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="C4" s="28">
+      <c r="C4" s="24">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="C5" s="28">
+      <c r="C5" s="24">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="C6" s="28">
+      <c r="C6" s="24">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="C7" s="28">
+      <c r="C7" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="C8" s="28">
+      <c r="C8" s="24">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="C9" s="28">
+      <c r="C9" s="24">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="C10" s="28">
+      <c r="C10" s="24">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="C11" s="28">
+      <c r="C11" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="C12" s="28">
+      <c r="C12" s="24">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="C13" s="28">
+      <c r="C13" s="24">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="33.75" customHeight="1">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="C14" s="28">
+      <c r="C14" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="30.75" customHeight="1">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="C15" s="28">
+      <c r="C15" s="24">
         <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="33">
+      <c r="B16" s="50"/>
+      <c r="C16" s="29">
         <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="49" t="s">
         <v>154</v>
       </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="31" t="s">
+      <c r="B17" s="50"/>
+      <c r="C17" s="27" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="C19" s="27"/>
+      <c r="C19" s="23"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="C20" s="27"/>
+      <c r="C20" s="23"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="B21" s="35">
+      <c r="B21" s="31">
         <v>1.02</v>
       </c>
-      <c r="C21" s="27"/>
+      <c r="C21" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3040,8 +3040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12:J14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3052,171 +3052,174 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="26.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="56" t="s">
         <v>163</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="40">
+      <c r="B1" s="56"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="34">
         <v>109</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="35" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="26.25">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="58" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="42">
+      <c r="B2" s="58"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="36">
         <v>4</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="37" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="26.25">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="60" t="s">
         <v>167</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="44">
+      <c r="B3" s="61"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="38">
         <f>D1/4</f>
         <v>27.25</v>
       </c>
-      <c r="E3" s="45" t="s">
+      <c r="E3" s="39" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="26.25">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="63" t="s">
         <v>169</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="64">
+      <c r="B4" s="64"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="44">
         <v>40000</v>
       </c>
-      <c r="E4" s="48" t="s">
+      <c r="E4" s="42" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="26.25">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="51" t="s">
         <v>171</v>
       </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="46">
+      <c r="B5" s="52"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="40">
         <v>16</v>
       </c>
-      <c r="E5" s="47" t="s">
+      <c r="E5" s="41" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="26.25">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="51" t="s">
         <v>173</v>
       </c>
-      <c r="B6" s="59"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="46">
+      <c r="B6" s="52"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="40">
         <v>64</v>
       </c>
-      <c r="E6" s="47" t="s">
+      <c r="E6" s="41" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="26.25">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="51" t="s">
         <v>174</v>
       </c>
-      <c r="B7" s="59"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="65">
+      <c r="B7" s="52"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="45">
         <f>D4*D6</f>
         <v>2560000</v>
       </c>
-      <c r="E7" s="47" t="s">
+      <c r="E7" s="41" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="61" t="s">
+      <c r="A11" s="54" t="s">
         <v>175</v>
       </c>
-      <c r="B11" s="61"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="62"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="61"/>
-      <c r="B12" s="61"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="63"/>
+      <c r="A12" s="54"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="55">
+        <f>(D1/D3)*D7</f>
+        <v>10240000</v>
+      </c>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="61"/>
-      <c r="B13" s="61"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
+      <c r="A13" s="54"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="55"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="61"/>
-      <c r="B14" s="61"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="63"/>
+      <c r="A14" s="54"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="61"/>
-      <c r="B15" s="61"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="62"/>
+      <c r="A15" s="54"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="61"/>
-      <c r="B16" s="61"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="62"/>
+      <c r="A16" s="54"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="9">
